--- a/data/QC/质控组仪表盘8-4.xlsx
+++ b/data/QC/质控组仪表盘8-4.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domainclient\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t>组别</t>
   </si>
@@ -71,9 +76,6 @@
     <t>下单错误数</t>
   </si>
   <si>
-    <t>质控组</t>
-  </si>
-  <si>
     <t>张悦</t>
   </si>
   <si>
@@ -195,19 +197,16 @@
   </si>
   <si>
     <t>总体</t>
+  </si>
+  <si>
+    <t>北京组</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,167 +218,24 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,194 +248,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -617,251 +287,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -875,61 +303,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1216,21 +600,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:18">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1286,36 +670,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:18">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="H2" s="2">
         <v>1.47</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2">
         <v>1</v>
@@ -1324,54 +708,54 @@
         <v>1</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="16.5" spans="1:18">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="H3" s="2">
         <v>5.89</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2">
         <v>13</v>
@@ -1380,54 +764,54 @@
         <v>13</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="16.5" spans="1:18">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="H4" s="2">
         <v>3.23</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2">
         <v>27</v>
@@ -1436,54 +820,54 @@
         <v>28</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="16.5" spans="1:18">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="H5" s="2">
         <v>5.19</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="K5" s="2">
         <v>107</v>
@@ -1492,40 +876,39 @@
         <v>115</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="8.125" customWidth="1"/>
@@ -1544,7 +927,7 @@
     <col min="18" max="18" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:30">
+    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1555,64 +938,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -1622,15 +1005,15 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
     </row>
-    <row r="2" ht="16.5" spans="1:30">
+    <row r="2" spans="1:30" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1">
         <v>33</v>
@@ -1701,7 +1084,7 @@
       <c r="AD2" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>